--- a/01_개발/이구민/합본/02/요구사항.xlsx
+++ b/01_개발/이구민/합본/02/요구사항.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>세일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,39 +379,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저랑 연동되도록 변경해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 수정 없음. 구현 불필요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검색기능 미구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일단 미정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>되면 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속제한, 권한 현재 미설정, 프론트 권한에 따른 버튼, 페이지 보이기 안보이기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저랑 연동되도록 변경해야함(보류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송조회 일단 미정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>일단 미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>되면 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속제한, 권한 현재 미설정, 프론트 권한에 따른 버튼, 페이지 보이기 안보이기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,21 +435,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -467,14 +451,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -858,20 +834,20 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -885,25 +861,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -911,45 +887,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -967,40 +930,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1018,10 +969,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1367,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1403,47 +1367,47 @@
     </row>
     <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="17"/>
@@ -1453,9 +1417,9 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1467,9 +1431,9 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="42"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1483,9 +1447,9 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1493,14 +1457,12 @@
         <v>42</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="34" t="s">
-        <v>93</v>
-      </c>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="56"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1508,13 +1470,15 @@
         <v>41</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="29" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="50" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="41" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -1524,10 +1488,10 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1535,62 +1499,62 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="30" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="30" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="54"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="50"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="34" t="s">
-        <v>95</v>
+      <c r="H16" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="50"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="34" t="s">
-        <v>94</v>
+      <c r="H17" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="14" t="s">
@@ -1600,10 +1564,10 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="42" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -1613,76 +1577,76 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="42"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="20"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="19" t="s">
         <v>47</v>
       </c>
       <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="42"/>
-      <c r="C24" s="41" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="51" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="42"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="32" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -1691,41 +1655,41 @@
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="32" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="49"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="42"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="32" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>94</v>
+      <c r="H27" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="42"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="21" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="52" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="51" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="5"/>
@@ -1734,13 +1698,13 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="42"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="53" t="s">
         <v>83</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="49" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -1749,47 +1713,45 @@
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="42"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="45"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="59"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="45"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="20" t="s">
-        <v>90</v>
+      <c r="H31" s="29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="42"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="45"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="52" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="42"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="8" t="s">
         <v>1</v>
       </c>
@@ -1798,14 +1760,12 @@
         <v>32</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="34" t="s">
-        <v>94</v>
-      </c>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="42"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="46" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="7"/>
@@ -1816,9 +1776,9 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="42"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="7"/>
       <c r="F35" s="15" t="s">
         <v>55</v>
@@ -1827,9 +1787,9 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="42"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="48"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="7"/>
       <c r="F36" s="15" t="s">
         <v>56</v>
@@ -1838,18 +1798,21 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="43"/>
-      <c r="C37" s="28" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="16"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="29" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="B5:E5"/>
@@ -1866,7 +1829,6 @@
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="D9:D17"/>
-    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
